--- a/docs/Y_output.xlsx
+++ b/docs/Y_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25575"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1890,55 +1890,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3481,7 +3481,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/docs/Y_output.xlsx
+++ b/docs/Y_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowWidth="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>float64 y_spcktime</t>
   </si>
@@ -568,6 +568,34 @@
   </si>
   <si>
     <t>反射8个车轮输入转矩 - w08</t>
+  </si>
+  <si>
+    <r>
+      <t>float64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y_tracks</t>
+    </r>
+  </si>
+  <si>
+    <t>运行里程</t>
   </si>
   <si>
     <r>
@@ -1664,7 +1692,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,18 +1768,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,7 +2111,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,16 +2135,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2137,89 +2153,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2232,18 +2248,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2253,36 +2263,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,13 +2326,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2864,1039 +2856,1049 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:4">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:4">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:4">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:4">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:4">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:4">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="22" customHeight="1" spans="1:4">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:4">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="22" customHeight="1" spans="1:4">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="22" customHeight="1" spans="1:4">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>10</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="22" customHeight="1" spans="1:4">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="22" customHeight="1" spans="1:4">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:4">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:4">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="22" customHeight="1" spans="1:4">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="22" customHeight="1" spans="1:4">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" ht="22" customHeight="1" spans="1:4">
-      <c r="A17" s="18">
+      <c r="A17" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:4">
-      <c r="A18" s="18">
+      <c r="A18" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" ht="22" customHeight="1" spans="1:4">
-      <c r="A19" s="18">
+      <c r="A19" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" ht="22" customHeight="1" spans="1:4">
-      <c r="A20" s="18">
+      <c r="A20" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:4">
-      <c r="A21" s="20">
+      <c r="A21" s="13">
         <v>21</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:4">
-      <c r="A22" s="20">
+      <c r="A22" s="13">
         <v>22</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" ht="22" customHeight="1" spans="1:4">
-      <c r="A23" s="21">
+      <c r="A23" s="15">
         <v>23</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:4">
-      <c r="A24" s="21">
+      <c r="A24" s="15">
         <v>24</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" ht="22" customHeight="1" spans="1:4">
-      <c r="A25" s="21">
+      <c r="A25" s="15">
         <v>25</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:4">
-      <c r="A26" s="21">
+      <c r="A26" s="15">
         <v>26</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" ht="22" customHeight="1" spans="1:4">
-      <c r="A27" s="21">
+      <c r="A27" s="15">
         <v>27</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" ht="22" customHeight="1" spans="1:4">
-      <c r="A28" s="21">
+      <c r="A28" s="15">
         <v>28</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" ht="22" customHeight="1" spans="1:4">
-      <c r="A29" s="23">
+      <c r="A29" s="17">
         <v>29</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" ht="22" customHeight="1" spans="1:4">
-      <c r="A30" s="23">
+      <c r="A30" s="17">
         <v>30</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" ht="22" customHeight="1" spans="1:4">
-      <c r="A31" s="23">
+      <c r="A31" s="17">
         <v>31</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" ht="22" customHeight="1" spans="1:3">
-      <c r="A32" s="23">
+      <c r="A32" s="17">
         <v>32</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="1" spans="1:3">
-      <c r="A33" s="23">
+      <c r="A33" s="17">
         <v>33</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:3">
-      <c r="A34" s="23">
+      <c r="A34" s="17">
         <v>34</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="1" spans="1:3">
-      <c r="A35" s="17">
+      <c r="A35" s="11">
         <v>35</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:3">
-      <c r="A36" s="17">
+      <c r="A36" s="11">
         <v>36</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="1" spans="1:3">
-      <c r="A37" s="17">
+      <c r="A37" s="11">
         <v>37</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="1" spans="1:3">
-      <c r="A38" s="17">
+      <c r="A38" s="11">
         <v>38</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="1" spans="1:3">
-      <c r="A39" s="17">
+      <c r="A39" s="11">
         <v>39</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="1" spans="1:3">
-      <c r="A40" s="17">
+      <c r="A40" s="11">
         <v>40</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="1" spans="1:3">
-      <c r="A41" s="25">
+      <c r="A41" s="19">
         <v>41</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="1" spans="1:3">
-      <c r="A42" s="25">
+      <c r="A42" s="19">
         <v>42</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="1" spans="1:3">
-      <c r="A43" s="25">
+      <c r="A43" s="19">
         <v>43</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="1" spans="1:3">
-      <c r="A44" s="25">
+      <c r="A44" s="19">
         <v>44</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="1" spans="1:3">
-      <c r="A45" s="25">
+      <c r="A45" s="19">
         <v>45</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" ht="22" customHeight="1" spans="1:3">
-      <c r="A46" s="25">
+      <c r="A46" s="19">
         <v>46</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" ht="22" customHeight="1" spans="1:3">
-      <c r="A47" s="27">
+      <c r="A47" s="21">
         <v>47</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="1" spans="1:3">
-      <c r="A48" s="27">
+      <c r="A48" s="21">
         <v>48</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" ht="22" customHeight="1" spans="1:3">
-      <c r="A49" s="27">
+      <c r="A49" s="21">
         <v>49</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1" spans="1:3">
-      <c r="A50" s="27">
+      <c r="A50" s="21">
         <v>50</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="1" spans="1:3">
-      <c r="A51" s="27">
+      <c r="A51" s="21">
         <v>51</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="1" spans="1:3">
-      <c r="A52" s="27">
+      <c r="A52" s="21">
         <v>52</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="1" spans="1:3">
-      <c r="A53" s="20">
+      <c r="A53" s="13">
         <v>53</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="1" spans="1:3">
-      <c r="A54" s="20">
+      <c r="A54" s="13">
         <v>54</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="1" spans="1:3">
-      <c r="A55" s="20">
+      <c r="A55" s="13">
         <v>55</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="1" spans="1:3">
-      <c r="A56" s="20">
+      <c r="A56" s="13">
         <v>56</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="1" spans="1:3">
-      <c r="A57" s="20">
+      <c r="A57" s="13">
         <v>57</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="1" spans="1:3">
-      <c r="A58" s="20">
+      <c r="A58" s="13">
         <v>58</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="1" spans="1:3">
-      <c r="A59" s="20">
+      <c r="A59" s="13">
         <v>59</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="1" spans="1:3">
-      <c r="A60" s="20">
+      <c r="A60" s="13">
         <v>60</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="1" spans="1:3">
-      <c r="A61" s="29">
+      <c r="A61" s="23">
         <v>61</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="1" spans="1:3">
-      <c r="A62" s="29">
+      <c r="A62" s="23">
         <v>62</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="1" spans="1:3">
-      <c r="A63" s="29">
+      <c r="A63" s="23">
         <v>63</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="1" spans="1:3">
-      <c r="A64" s="29">
+      <c r="A64" s="23">
         <v>64</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="1" spans="1:3">
-      <c r="A65" s="29">
+      <c r="A65" s="23">
         <v>65</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="1" spans="1:3">
-      <c r="A66" s="29">
+      <c r="A66" s="23">
         <v>66</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="1" spans="1:3">
-      <c r="A67" s="29">
+      <c r="A67" s="23">
         <v>67</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="1" spans="1:3">
-      <c r="A68" s="29">
+      <c r="A68" s="23">
         <v>68</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="1" spans="1:3">
-      <c r="A69" s="31">
+      <c r="A69" s="25">
         <v>69</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="25" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="1" spans="1:3">
-      <c r="A70" s="31">
+      <c r="A70" s="25">
         <v>70</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="1" spans="1:3">
-      <c r="A71" s="31">
+      <c r="A71" s="25">
         <v>71</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="1" spans="1:3">
-      <c r="A72" s="31">
+      <c r="A72" s="25">
         <v>72</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="1" spans="1:3">
-      <c r="A73" s="11">
+      <c r="A73" s="7">
         <v>73</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="1" spans="1:3">
-      <c r="A74" s="11">
+      <c r="A74" s="7">
         <v>74</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="1" spans="1:3">
-      <c r="A75" s="11">
+      <c r="A75" s="7">
         <v>75</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="1" spans="1:3">
-      <c r="A76" s="11">
+      <c r="A76" s="7">
         <v>76</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A77" s="33">
+      <c r="A77" s="27">
         <v>77</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="27" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A78" s="33">
+      <c r="A78" s="27">
         <v>78</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A79" s="27">
+      <c r="A79" s="21">
         <v>79</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A80" s="27">
+      <c r="A80" s="21">
         <v>80</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A81" s="27">
+      <c r="A81" s="21">
         <v>81</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A82" s="27">
+      <c r="A82" s="21">
         <v>82</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="1" spans="1:3">
-      <c r="A83" s="37">
+      <c r="A83" s="29">
         <v>83</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="29" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="1" spans="1:3">
-      <c r="A84" s="37">
+      <c r="A84" s="29">
         <v>84</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="1" spans="1:3">
-      <c r="A85" s="37">
+      <c r="A85" s="29">
         <v>85</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="1" spans="1:3">
-      <c r="A86" s="37">
+      <c r="A86" s="29">
         <v>86</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="29" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="1" spans="1:3">
-      <c r="A87" s="37">
+      <c r="A87" s="29">
         <v>87</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="1" spans="1:3">
-      <c r="A88" s="37">
+      <c r="A88" s="29">
         <v>88</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="1" spans="1:3">
-      <c r="A89" s="37">
+      <c r="A89" s="29">
         <v>89</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90" ht="22" customHeight="1" spans="1:3">
-      <c r="A90" s="37">
+      <c r="A90" s="29">
         <v>90</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" ht="22" customHeight="1"/>
+    <row r="91" ht="22" customHeight="1" spans="1:3">
+      <c r="A91" s="17">
+        <v>91</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="92" ht="22" customHeight="1"/>
     <row r="93" ht="22" customHeight="1"/>
     <row r="94" ht="22" customHeight="1"/>
@@ -3928,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:2">
@@ -3936,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:2">
@@ -3944,7 +3946,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:2">
@@ -3952,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:2">
@@ -3960,7 +3962,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:2">
@@ -3968,7 +3970,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:2">
@@ -3976,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:2">
@@ -3984,7 +3986,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:2">
@@ -3992,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:2">
@@ -4000,7 +4002,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:2">
@@ -4008,7 +4010,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:2">
@@ -4016,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" ht="18.75" spans="1:2">
@@ -4024,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:2">
@@ -4032,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:2">
@@ -4040,7 +4042,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:2">
@@ -4048,7 +4050,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:2">
@@ -4056,7 +4058,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:2">
@@ -4064,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:2">
@@ -4072,7 +4074,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:2">
@@ -4080,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:2">
@@ -4088,7 +4090,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:2">
@@ -4096,7 +4098,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" ht="18.75" spans="1:2">
@@ -4104,7 +4106,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:2">
@@ -4112,7 +4114,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:2">
@@ -4120,7 +4122,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:2">
@@ -4128,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:2">
@@ -4136,7 +4138,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:2">
@@ -4144,7 +4146,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
